--- a/biology/Zoologie/Deinodon/Deinodon.xlsx
+++ b/biology/Zoologie/Deinodon/Deinodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Deinodon est le nom attribué à des dents de Tyrannosauridés datant du Crétacé supérieur trouvées au Montana par le paléontologue Joseph Leidy en 1856. Ce sont les premiers restes de Tyrannosauridés à avoir été décrits.
 Bien qu'il soit probable que ces dents fossilisées de dinosaures appartenaient à une espèce identifiée par la suite comme étant Gorgosaurus libratus, il est pratiquement impossible de distinguer les différentes espèces de Tyrannosauridés en fonction des caractéristiques dentaires seules, aussi Deinodon est aujourd'hui considéré comme un nomen dubium - un nom scientifique de peu d'utilité.
@@ -512,7 +524,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Espèce type :
 Deinodon horridus Leidy, 1856 ; nomen dubium incorporé dans Albertosaurus libratus.
@@ -564,7 +578,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Voir Liste des dinosaures
 Sur les autres projets Wikimedia :
